--- a/data/trans_dic/MCS12_SP_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,25%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,44%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,2%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>13,13; 22,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>26,15; 37,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>4,66; 10,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>20,77; 31,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>37,91; 49,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>5,31; 10,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>18,07; 25,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>33,23; 41,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>5,32; 9,05</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,8%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,25%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>22,66; 30,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>11,83; 18,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>6,26; 11,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>12,52; 20,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>36,81; 45,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>21,87; 29,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>12,52; 18,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>20,93; 27,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>30,77; 36,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>17,9; 23,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>10,06; 14,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>17,88; 23,12</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,86%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>2,09; 6,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>11,18; 19,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>6,85; 13,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>10,15; 17,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>7,19; 13,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>19,25; 29,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>11,07; 18,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>16,56; 23,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>5,25; 9,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>16,42; 22,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>10,09; 15,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>14,51; 19,73</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,21%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>7,02; 13,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>23,6; 30,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>15,67; 23,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>9,12; 17,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>13,11; 20,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>43,23; 51,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>27,25; 37,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>16,59; 24,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>10,87; 15,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>34,48; 39,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>22,77; 29,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>14,24; 20,33</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,04%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,87%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,47%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,3%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,04%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,3%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>24,68; 36,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>8,51; 17,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>34,5; 47,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>41,77; 54,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>31,44; 44,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>25,65; 38,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>44,54; 58,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>54,25; 64,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>29,66; 39,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>18,48; 26,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>41,29; 50,5</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>50,23; 58,34</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,15%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>3,03; 8,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>12,57; 21,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>7,93; 16,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>12,72; 20,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>10,8; 19,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>20,56; 30,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>18,38; 28,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>16,48; 24,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>7,81; 12,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>17,4; 24,8</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>14,7; 21,47</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>15,6; 20,79</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,6%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,5%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,24%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>11,36; 17,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>15,87; 22,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>17,47; 24,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>23,1; 31,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>17,28; 23,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>20,91; 27,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>26,61; 33,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>35,53; 65,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>14,93; 19,54</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>19,17; 23,81</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>22,97; 27,86</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>31,19; 52,52</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,74%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,84%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,42%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,6%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>26,63; 33,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>29,91; 37,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>16,48; 22,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>16,95; 24,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>32,3; 39,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>35,78; 42,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>19,57; 25,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>27,26; 33,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>30,42; 35,3</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>34,27; 39,17</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>18,8; 22,98</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>22,86; 27,91</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,77%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,18%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,28; 20,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>20,91; 23,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,53; 20,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>18,46; 21,44</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>25,0; 28,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>31,02; 34,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>25,2; 28,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>27,28; 36,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>21,59; 23,76</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>26,56; 28,73</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>21,96; 24,05</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>23,65; 29,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/MCS12_SP_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>41,13%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>54,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>32,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>50,87%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>43,74%</t>
+          <t>64,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>34,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>45,89%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>59,75%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>33,39%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,13; 22,15</t>
+          <t>34,79; 46,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,15; 37,26</t>
+          <t>48,09; 60,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 10,47</t>
+          <t>26,72; 38,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,77; 31,58</t>
+          <t>44,97; 57,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,91; 49,87</t>
+          <t>58,89; 70,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,31; 10,01</t>
+          <t>29,76; 38,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,07; 25,03</t>
+          <t>40,92; 50,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>33,23; 41,81</t>
+          <t>55,52; 64,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,32; 9,05</t>
+          <t>29,86; 37,38</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26,6%</t>
+          <t>54,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>27,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,84%</t>
+          <t>66,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>40,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>28,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>36,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>60,92%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>32,62%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>32,56%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,66; 30,79</t>
+          <t>50,34; 59,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,83; 18,66</t>
+          <t>21,03; 28,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,26; 11,22</t>
+          <t>16,83; 24,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,52; 20,54</t>
+          <t>22,82; 33,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,81; 45,25</t>
+          <t>62,78; 71,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,87; 29,87</t>
+          <t>35,6; 44,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,52; 18,9</t>
+          <t>24,53; 32,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,93; 27,94</t>
+          <t>33,74; 40,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,77; 36,91</t>
+          <t>57,58; 63,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,9; 23,28</t>
+          <t>29,73; 35,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,06; 14,13</t>
+          <t>21,74; 27,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,88; 23,12</t>
+          <t>29,21; 35,65</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>42,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>45,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>40,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>55,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>59,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>37,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>49,12%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>52,64%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>32,52%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 6,23</t>
+          <t>20,54; 30,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,18; 19,2</t>
+          <t>37,14; 47,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 13,79</t>
+          <t>40,19; 51,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,15; 17,44</t>
+          <t>22,25; 31,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,19; 13,95</t>
+          <t>34,9; 45,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,25; 29,06</t>
+          <t>49,75; 61,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,07; 18,97</t>
+          <t>54,48; 65,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,56; 23,68</t>
+          <t>33,15; 42,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,25; 9,17</t>
+          <t>29,32; 36,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,42; 22,52</t>
+          <t>45,43; 53,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,09; 15,02</t>
+          <t>48,62; 56,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,51; 19,73</t>
+          <t>29,68; 35,95</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>40,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>57,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>41,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>30,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>48,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>46,84%</t>
+          <t>72,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,08%</t>
+          <t>51,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>41,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>44,72%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>65,11%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>47,04%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>37,07%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,02; 13,35</t>
+          <t>35,52; 45,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,6; 30,59</t>
+          <t>53,78; 62,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,67; 23,86</t>
+          <t>37,05; 46,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,12; 17,54</t>
+          <t>24,91; 36,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,11; 20,7</t>
+          <t>43,83; 53,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,23; 51,09</t>
+          <t>68,57; 75,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,25; 37,1</t>
+          <t>46,4; 56,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,59; 24,51</t>
+          <t>36,45; 49,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,87; 15,96</t>
+          <t>41,52; 48,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34,48; 39,86</t>
+          <t>62,25; 67,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22,77; 29,31</t>
+          <t>43,57; 50,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,24; 20,33</t>
+          <t>32,78; 42,27</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>47,53%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>35,2%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>41,04%</t>
+          <t>85,07%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>48,24%</t>
+          <t>73,07%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>38,07%</t>
+          <t>59,93%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
+          <t>49,52%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>50,87%</t>
+          <t>87,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>59,47%</t>
+          <t>81,61%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>34,3%</t>
+          <t>53,8%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>22,5%</t>
+          <t>42,48%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>46,04%</t>
+          <t>86,27%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>54,3%</t>
+          <t>77,68%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,68; 36,81</t>
+          <t>41,21; 55,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 17,75</t>
+          <t>28,77; 42,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,5; 47,65</t>
+          <t>79,92; 88,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41,77; 54,34</t>
+          <t>66,92; 78,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,44; 44,65</t>
+          <t>53,44; 66,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,65; 38,3</t>
+          <t>43,18; 55,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>44,54; 58,13</t>
+          <t>82,88; 91,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>54,25; 64,51</t>
+          <t>77,06; 85,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,66; 39,0</t>
+          <t>48,62; 59,04</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,48; 26,74</t>
+          <t>37,71; 47,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>41,29; 50,5</t>
+          <t>83,0; 89,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,23; 58,34</t>
+          <t>73,74; 81,08</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>32,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>48,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>33,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>33,93%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>45,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>54,99%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>44,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>39,2%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>51,67%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>38,73%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>35,69%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,03; 8,48</t>
+          <t>27,73; 39,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,57; 21,61</t>
+          <t>42,22; 54,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,93; 16,21</t>
+          <t>27,59; 38,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,72; 20,5</t>
+          <t>28,44; 38,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,8; 19,09</t>
+          <t>38,9; 51,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,56; 30,84</t>
+          <t>49,34; 60,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,38; 28,9</t>
+          <t>37,89; 50,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,48; 24,2</t>
+          <t>32,52; 42,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,81; 12,81</t>
+          <t>35,2; 43,29</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,4; 24,8</t>
+          <t>47,56; 56,33</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,7; 21,47</t>
+          <t>34,69; 43,15</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,6; 20,79</t>
+          <t>32,23; 39,1</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>34,6%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>50,91%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>50,81%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,6%</t>
+          <t>50,93%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>47,51%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>58,84%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>56,32%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>45,5%</t>
+          <t>66,53%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>41,18%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>54,96%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>53,64%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>37,24%</t>
+          <t>59,71%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,36; 17,18</t>
+          <t>30,61; 38,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,87; 22,32</t>
+          <t>46,82; 55,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,47; 24,2</t>
+          <t>46,39; 54,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,1; 31,16</t>
+          <t>46,13; 55,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,28; 23,61</t>
+          <t>43,79; 51,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,91; 27,59</t>
+          <t>54,64; 62,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,61; 33,62</t>
+          <t>52,46; 60,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,53; 65,54</t>
+          <t>59,97; 79,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,93; 19,54</t>
+          <t>38,47; 44,13</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,17; 23,81</t>
+          <t>51,94; 57,75</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>22,97; 27,86</t>
+          <t>50,97; 56,48</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>31,19; 52,52</t>
+          <t>55,24; 68,69</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>51,39%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>49,42%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>52,16%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>41,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>35,74%</t>
+          <t>58,4%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>60,29%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>53,74%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>53,37%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>32,84%</t>
+          <t>54,98%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>36,42%</t>
+          <t>55,01%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>52,97%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>47,4%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,63; 33,57</t>
+          <t>47,68; 54,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,91; 37,27</t>
+          <t>45,26; 52,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,48; 22,29</t>
+          <t>48,64; 55,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,95; 24,37</t>
+          <t>33,35; 45,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>32,3; 39,17</t>
+          <t>54,45; 61,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,78; 42,84</t>
+          <t>56,86; 63,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,57; 25,71</t>
+          <t>50,2; 57,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27,26; 33,41</t>
+          <t>49,63; 56,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30,42; 35,3</t>
+          <t>52,36; 57,59</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>34,27; 39,17</t>
+          <t>52,27; 57,36</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>18,8; 22,98</t>
+          <t>50,31; 55,34</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>22,86; 27,91</t>
+          <t>42,48; 50,26</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>42,41%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>46,08%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>46,2%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>53,17%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>57,79%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>53,07%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>50,12%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>47,87%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>52,04%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>49,71%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>44,99%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,28; 20,03</t>
+          <t>40,69; 44,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>20,91; 23,98</t>
+          <t>44,24; 47,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,53; 20,15</t>
+          <t>44,32; 47,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>18,46; 21,44</t>
+          <t>36,85; 41,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>25,0; 28,09</t>
+          <t>51,52; 54,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,02; 34,14</t>
+          <t>56,09; 59,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>25,2; 28,42</t>
+          <t>51,28; 54,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>27,28; 36,69</t>
+          <t>47,94; 55,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>21,59; 23,76</t>
+          <t>46,56; 49,1</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>26,56; 28,73</t>
+          <t>50,9; 53,25</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>21,96; 24,05</t>
+          <t>48,46; 50,91</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>23,65; 29,06</t>
+          <t>43,35; 47,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/MCS12_SP_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Provincia-trans_dic.xlsx
@@ -661,57 +661,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>54,72%</t>
+          <t>56,16%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,55%</t>
+          <t>33,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>50,87%</t>
+          <t>52,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,83%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>64,88%</t>
+          <t>67,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>34,2%</t>
+          <t>35,54%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>45,89%</t>
+          <t>46,61%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,31%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>59,75%</t>
+          <t>61,6%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>34,57%</t>
         </is>
       </c>
     </row>
@@ -729,57 +729,57 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,35; 62,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48,09; 60,26</t>
+          <t>49,6; 61,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,72; 38,3</t>
+          <t>27,33; 40,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,97; 57,48</t>
+          <t>46,17; 58,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>68,64; 79,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>58,89; 70,7</t>
+          <t>61,14; 72,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,76; 38,99</t>
+          <t>31,01; 40,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>40,92; 50,08</t>
+          <t>41,51; 50,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,04; 69,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>55,52; 64,31</t>
+          <t>57,29; 66,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,86; 37,38</t>
+          <t>30,73; 38,93</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>54,79%</t>
+          <t>55,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>66,92%</t>
+          <t>68,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,31%</t>
+          <t>41,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>28,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,99%</t>
+          <t>37,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>60,92%</t>
+          <t>62,11%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>32,62%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>25,09%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>32,69%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50,34; 59,58</t>
+          <t>51,48; 60,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,03; 28,77</t>
+          <t>21,38; 29,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,83; 24,01</t>
+          <t>17,61; 25,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,82; 33,07</t>
+          <t>22,41; 32,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,78; 71,11</t>
+          <t>64,4; 72,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,6; 44,91</t>
+          <t>36,66; 46,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,53; 32,15</t>
+          <t>25,3; 32,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,74; 40,92</t>
+          <t>34,58; 41,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>57,58; 63,69</t>
+          <t>58,73; 64,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,73; 35,93</t>
+          <t>30,65; 36,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,74; 27,07</t>
+          <t>22,51; 28,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,21; 35,65</t>
+          <t>29,29; 35,97</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42,44%</t>
+          <t>49,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>45,16%</t>
+          <t>48,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>55,47%</t>
+          <t>66,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>59,72%</t>
+          <t>61,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>37,7%</t>
+          <t>37,61%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>34,16%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>49,12%</t>
+          <t>57,93%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>52,64%</t>
+          <t>55,17%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>32,35%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,54; 30,53</t>
+          <t>22,17; 32,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,14; 47,88</t>
+          <t>43,1; 54,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,19; 51,18</t>
+          <t>43,35; 54,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,25; 31,34</t>
+          <t>22,26; 31,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,9; 45,7</t>
+          <t>35,75; 46,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,75; 61,17</t>
+          <t>61,03; 71,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>54,48; 65,1</t>
+          <t>55,74; 66,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,15; 42,07</t>
+          <t>33,06; 41,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,32; 36,63</t>
+          <t>30,48; 37,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>45,43; 53,18</t>
+          <t>53,98; 61,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>48,62; 56,49</t>
+          <t>51,2; 59,11</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>29,68; 35,95</t>
+          <t>29,43; 35,79</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>40,64%</t>
+          <t>41,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>57,92%</t>
+          <t>64,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>41,96%</t>
+          <t>44,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>32,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>48,66%</t>
+          <t>50,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>72,21%</t>
+          <t>74,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>51,9%</t>
+          <t>54,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>41,74%</t>
+          <t>47,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>44,72%</t>
+          <t>46,09%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>65,11%</t>
+          <t>69,77%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>47,04%</t>
+          <t>49,28%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>41,52%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,52; 45,66</t>
+          <t>36,57; 46,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,78; 62,13</t>
+          <t>58,78; 69,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>37,05; 46,99</t>
+          <t>39,1; 49,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,91; 36,62</t>
+          <t>25,7; 38,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,83; 53,96</t>
+          <t>45,67; 55,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,57; 75,72</t>
+          <t>69,83; 79,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,4; 56,71</t>
+          <t>48,62; 58,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,45; 49,25</t>
+          <t>35,8; 67,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>41,52; 48,55</t>
+          <t>42,76; 49,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>62,25; 67,7</t>
+          <t>65,66; 73,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>43,57; 50,93</t>
+          <t>45,58; 53,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,78; 42,27</t>
+          <t>33,85; 59,25</t>
         </is>
       </c>
     </row>
@@ -1216,22 +1216,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>47,53%</t>
+          <t>48,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>36,65%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>85,07%</t>
+          <t>86,74%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>73,07%</t>
+          <t>76,35%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1241,37 +1241,37 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>49,52%</t>
+          <t>50,41%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>87,43%</t>
+          <t>87,84%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>81,61%</t>
+          <t>83,63%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>53,8%</t>
+          <t>54,03%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>43,64%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>86,27%</t>
+          <t>87,3%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>77,68%</t>
+          <t>80,26%</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1284,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,21; 55,27</t>
+          <t>41,49; 55,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28,77; 42,06</t>
+          <t>30,25; 43,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,92; 88,87</t>
+          <t>81,8; 90,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>66,92; 78,56</t>
+          <t>70,07; 81,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,37 +1309,37 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,18; 55,94</t>
+          <t>44,11; 56,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>82,88; 91,38</t>
+          <t>83,28; 91,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>77,06; 85,01</t>
+          <t>79,33; 86,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>48,62; 59,04</t>
+          <t>48,73; 59,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37,71; 47,19</t>
+          <t>39,13; 48,55</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>83,0; 89,32</t>
+          <t>84,08; 90,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>73,74; 81,08</t>
+          <t>76,5; 83,42</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>34,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>48,29%</t>
+          <t>54,27%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>33,19%</t>
+          <t>34,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>33,93%</t>
+          <t>34,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>46,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>54,99%</t>
+          <t>63,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>45,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>37,63%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>39,2%</t>
+          <t>40,41%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>51,67%</t>
+          <t>58,82%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>38,73%</t>
+          <t>40,31%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>35,92%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>27,73; 39,06</t>
+          <t>28,98; 40,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>42,22; 54,17</t>
+          <t>48,33; 59,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,59; 38,76</t>
+          <t>28,77; 40,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>28,44; 38,75</t>
+          <t>28,53; 39,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>38,9; 51,54</t>
+          <t>39,96; 52,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,34; 60,77</t>
+          <t>57,55; 68,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,89; 50,56</t>
+          <t>39,39; 52,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>32,52; 42,33</t>
+          <t>32,73; 42,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>35,2; 43,29</t>
+          <t>36,25; 44,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>47,56; 56,33</t>
+          <t>54,54; 63,3</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>34,69; 43,15</t>
+          <t>36,09; 44,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>32,23; 39,1</t>
+          <t>32,43; 39,35</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>50,91%</t>
+          <t>55,12%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>50,81%</t>
+          <t>53,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>50,93%</t>
+          <t>52,41%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>47,51%</t>
+          <t>48,91%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>58,84%</t>
+          <t>65,27%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>56,32%</t>
+          <t>57,46%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>66,53%</t>
+          <t>72,21%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>41,18%</t>
+          <t>42,19%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>54,96%</t>
+          <t>60,31%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>53,64%</t>
+          <t>55,29%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>59,71%</t>
+          <t>63,84%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,61; 38,4</t>
+          <t>30,99; 39,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>46,82; 55,09</t>
+          <t>50,93; 58,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>46,39; 54,5</t>
+          <t>48,87; 56,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>46,13; 55,3</t>
+          <t>47,35; 57,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>43,79; 51,62</t>
+          <t>44,98; 52,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>54,64; 62,77</t>
+          <t>61,28; 69,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>52,46; 60,16</t>
+          <t>53,49; 61,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>59,97; 79,48</t>
+          <t>62,24; 86,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>38,47; 44,13</t>
+          <t>39,46; 45,16</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>51,94; 57,75</t>
+          <t>57,43; 63,05</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>50,97; 56,48</t>
+          <t>52,71; 58,16</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>55,24; 68,69</t>
+          <t>57,06; 76,19</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>51,39%</t>
+          <t>52,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>49,42%</t>
+          <t>50,6%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>52,16%</t>
+          <t>54,15%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>58,4%</t>
+          <t>58,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>60,29%</t>
+          <t>62,04%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>53,74%</t>
+          <t>56,83%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>53,37%</t>
+          <t>59,93%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>54,98%</t>
+          <t>55,41%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>55,01%</t>
+          <t>56,48%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>52,97%</t>
+          <t>55,53%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>47,4%</t>
+          <t>47,27%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>47,68; 54,93</t>
+          <t>48,34; 55,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>45,26; 52,83</t>
+          <t>46,52; 54,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>48,64; 55,82</t>
+          <t>50,54; 57,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>33,35; 45,79</t>
+          <t>17,41; 52,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>54,45; 61,87</t>
+          <t>54,79; 62,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>56,86; 63,82</t>
+          <t>58,53; 65,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>50,2; 57,49</t>
+          <t>53,59; 60,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>49,63; 56,61</t>
+          <t>56,42; 63,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>52,36; 57,59</t>
+          <t>52,64; 57,99</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>52,27; 57,36</t>
+          <t>53,87; 58,97</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>50,31; 55,34</t>
+          <t>52,9; 57,85</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>42,48; 50,26</t>
+          <t>28,04; 56,09</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>42,41%</t>
+          <t>43,22%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>46,08%</t>
+          <t>49,0%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>46,2%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>53,17%</t>
+          <t>54,18%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>57,79%</t>
+          <t>61,86%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>53,07%</t>
+          <t>54,84%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>50,12%</t>
+          <t>53,8%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>47,87%</t>
+          <t>48,79%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>52,04%</t>
+          <t>55,55%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>49,71%</t>
+          <t>51,57%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>46,43%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>40,69; 44,15</t>
+          <t>41,5; 44,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>44,24; 47,94</t>
+          <t>47,21; 50,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>44,32; 47,76</t>
+          <t>46,25; 49,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>36,85; 41,2</t>
+          <t>29,1; 42,17</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>51,52; 54,91</t>
+          <t>52,49; 55,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>56,09; 59,58</t>
+          <t>60,19; 63,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>51,28; 54,76</t>
+          <t>52,98; 56,51</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>47,94; 55,42</t>
+          <t>49,96; 62,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>46,56; 49,1</t>
+          <t>47,5; 49,99</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>50,9; 53,25</t>
+          <t>54,36; 56,72</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>48,46; 50,91</t>
+          <t>50,28; 52,76</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>43,35; 47,51</t>
+          <t>42,13; 50,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/MCS12_SP_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,79; 46,35</t>
+          <t>35,54; 47,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,35; 62,37</t>
+          <t>50,46; 61,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,6; 61,83</t>
+          <t>49,97; 62,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,33; 40,33</t>
+          <t>27,57; 40,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,17; 58,96</t>
+          <t>46,33; 58,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>68,64; 79,57</t>
+          <t>69,0; 79,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,14; 72,62</t>
+          <t>61,92; 72,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,01; 40,85</t>
+          <t>31,22; 40,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>41,51; 50,63</t>
+          <t>42,53; 51,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>61,04; 69,42</t>
+          <t>61,18; 69,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>57,29; 66,31</t>
+          <t>57,86; 66,2</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,73; 38,93</t>
+          <t>30,85; 39,34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51,48; 60,68</t>
+          <t>51,35; 60,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,38; 29,33</t>
+          <t>21,68; 29,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,61; 25,0</t>
+          <t>17,73; 25,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,41; 32,96</t>
+          <t>22,93; 32,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>64,4; 72,46</t>
+          <t>63,87; 72,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,66; 46,23</t>
+          <t>37,26; 46,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,3; 32,9</t>
+          <t>24,76; 33,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,58; 41,63</t>
+          <t>34,07; 41,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>58,73; 64,94</t>
+          <t>58,89; 65,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,65; 36,75</t>
+          <t>30,21; 36,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22,51; 28,02</t>
+          <t>22,57; 28,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,29; 35,97</t>
+          <t>29,63; 36,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,17; 32,55</t>
+          <t>22,28; 32,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,1; 54,13</t>
+          <t>43,57; 54,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43,35; 54,28</t>
+          <t>43,74; 54,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,26; 31,46</t>
+          <t>22,03; 32,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,75; 46,44</t>
+          <t>35,68; 46,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>61,03; 71,07</t>
+          <t>60,78; 71,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>55,74; 66,23</t>
+          <t>55,72; 67,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,06; 41,97</t>
+          <t>33,25; 42,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,48; 37,91</t>
+          <t>30,9; 37,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>53,98; 61,86</t>
+          <t>53,92; 61,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,2; 59,11</t>
+          <t>51,36; 58,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>29,43; 35,79</t>
+          <t>29,31; 35,29</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,57; 46,74</t>
+          <t>36,35; 46,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>58,78; 69,35</t>
+          <t>58,86; 69,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,1; 49,52</t>
+          <t>39,34; 49,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,7; 38,08</t>
+          <t>26,03; 39,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,67; 55,64</t>
+          <t>45,05; 55,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>69,83; 79,22</t>
+          <t>70,1; 79,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,62; 58,93</t>
+          <t>49,05; 59,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,8; 67,07</t>
+          <t>35,94; 66,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>42,76; 49,99</t>
+          <t>42,75; 49,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>65,66; 73,04</t>
+          <t>66,3; 73,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>45,58; 53,02</t>
+          <t>45,46; 52,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>33,85; 59,25</t>
+          <t>33,86; 57,71</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,49; 55,69</t>
+          <t>41,2; 54,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,25; 43,48</t>
+          <t>29,49; 43,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>81,8; 90,44</t>
+          <t>81,72; 90,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>70,07; 81,58</t>
+          <t>70,39; 81,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>53,44; 66,83</t>
+          <t>52,96; 66,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>44,11; 56,98</t>
+          <t>43,83; 57,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>83,28; 91,76</t>
+          <t>83,0; 91,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>79,33; 86,94</t>
+          <t>79,52; 87,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>48,73; 59,19</t>
+          <t>48,84; 58,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>39,13; 48,55</t>
+          <t>38,68; 48,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>84,08; 90,15</t>
+          <t>84,05; 89,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>76,5; 83,42</t>
+          <t>76,46; 83,15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,98; 40,34</t>
+          <t>28,49; 39,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>48,33; 59,86</t>
+          <t>48,23; 60,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,77; 40,68</t>
+          <t>29,68; 41,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>28,53; 39,09</t>
+          <t>29,21; 39,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>39,96; 52,41</t>
+          <t>40,55; 53,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>57,55; 68,61</t>
+          <t>57,59; 69,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>39,39; 52,18</t>
+          <t>39,38; 51,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>32,73; 42,49</t>
+          <t>33,44; 42,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>36,25; 44,35</t>
+          <t>36,34; 44,22</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>54,54; 63,3</t>
+          <t>54,19; 62,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>36,09; 44,69</t>
+          <t>36,04; 44,66</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>32,43; 39,35</t>
+          <t>32,31; 39,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,99; 39,03</t>
+          <t>31,1; 38,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>50,93; 58,95</t>
+          <t>51,03; 59,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>48,87; 56,79</t>
+          <t>48,62; 56,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>47,35; 57,25</t>
+          <t>47,43; 57,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,98; 52,8</t>
+          <t>45,07; 52,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>61,28; 69,07</t>
+          <t>61,26; 68,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>53,49; 61,25</t>
+          <t>53,47; 61,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>62,24; 86,44</t>
+          <t>62,05; 88,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>39,46; 45,16</t>
+          <t>39,36; 44,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>57,43; 63,05</t>
+          <t>57,96; 63,43</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>52,71; 58,16</t>
+          <t>52,65; 58,21</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>57,06; 76,19</t>
+          <t>56,88; 77,75</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>48,34; 55,54</t>
+          <t>48,43; 55,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>46,52; 54,04</t>
+          <t>47,25; 54,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>50,54; 57,65</t>
+          <t>50,77; 57,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,41; 52,25</t>
+          <t>16,52; 51,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>54,79; 62,03</t>
+          <t>54,9; 62,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>58,53; 65,43</t>
+          <t>58,32; 65,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>53,59; 60,58</t>
+          <t>53,05; 60,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>56,42; 63,12</t>
+          <t>56,61; 63,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>52,64; 57,99</t>
+          <t>52,77; 58,06</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>53,87; 58,97</t>
+          <t>53,95; 59,04</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>52,9; 57,85</t>
+          <t>52,72; 57,78</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>28,04; 56,09</t>
+          <t>29,24; 56,36</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>41,5; 44,95</t>
+          <t>41,41; 44,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>47,21; 50,81</t>
+          <t>47,28; 50,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>46,25; 49,64</t>
+          <t>46,4; 49,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>29,1; 42,17</t>
+          <t>28,37; 42,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>52,49; 55,96</t>
+          <t>52,47; 55,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>60,19; 63,62</t>
+          <t>60,19; 63,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>52,98; 56,51</t>
+          <t>53,1; 56,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>49,96; 62,24</t>
+          <t>50,04; 61,56</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>47,5; 49,99</t>
+          <t>47,59; 50,01</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>54,36; 56,72</t>
+          <t>54,27; 56,69</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>50,28; 52,76</t>
+          <t>50,42; 52,82</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>42,13; 50,57</t>
+          <t>41,95; 50,83</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>112283</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>165148</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>164971</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>104871</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>136526</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>214959</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>193828</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>102926</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>248809</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>380108</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>358799</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>207797</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>97033; 130222</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>148710; 180885</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>146787; 182744</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>85858; 127112</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>120850; 153438</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>198189; 229042</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>178758; 210427</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>90431; 118560</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>227049; 272842</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>356042; 402925</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>337028; 385593</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>185404; 236448</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>274983</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>127797</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>105959</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>142847</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>344274</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>217092</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>151391</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>194193</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>619257</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>344889</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>257350</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>337040</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>253213; 298697</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>109620; 149953</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>89082; 127440</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>118648; 168251</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>321851; 363890</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>195147; 242767</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>129533; 173698</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>174952; 213600</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>587179; 648459</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>310984; 376262</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>231534; 287688</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>305562; 372878</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>86084</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>159054</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>155616</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>83520</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>137407</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>226204</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>205655</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>129422</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>223491</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>385258</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>361271</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>212942</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>71028; 102836</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>141181; 178139</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>139338; 174585</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>69201; 100647</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>119670; 157517</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>207288; 244412</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>187390; 225569</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>114426; 145209</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>202168; 247787</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>358570; 410738</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>336351; 385057</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>192899; 232245</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>149473</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>241064</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>163330</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>98340</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>187071</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>291215</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>209846</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>224166</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>336545</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>532280</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>373177</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>322506</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>130378; 168549</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>220124; 258877</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>145536; 184297</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>79694; 120000</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>167325; 205884</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>272648; 308735</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>189955; 230051</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>169082; 312186</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>312157; 364356</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>505850; 557657</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>344226; 399798</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>262976; 448241</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>97593</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>77923</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>183218</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>136093</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>124458</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>110704</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>191996</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>172816</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>222051</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>188627</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>375215</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>308909</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>83772; 111496</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>62711; 92290</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>172619; 191698</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>125461; 144929</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>109985; 137513</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>96254; 125863</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>181433; 200952</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>164323; 179969</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>200728; 242212</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>167175; 211635</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>361252; 386744</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>294278; 320025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>92392</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>148695</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>91764</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>92270</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>129450</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>177150</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>124378</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>96734</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>221842</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>325845</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>216141</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>189004</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>77160; 107618</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>132128; 166504</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>78103; 109735</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>78616; 107179</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>112775; 148014</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>161274; 194071</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>107565; 139740</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>85971; 108900</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>199491; 242750</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>300246; 346569</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>193258; 239510</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>170028; 207434</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>216567</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>365297</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>347973</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>324896</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>312135</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>452857</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>397217</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>611516</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>528702</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>818154</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>745190</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>936412</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>191279; 239433</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>338201; 391440</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>319200; 372401</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>293994; 357228</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>287657; 338077</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>425048; 477333</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>369664; 424183</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>525494; 752701</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>493250; 562246</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>786325; 860465</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>709595; 784534</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>834341; 1140452</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>837</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>386737</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>394215</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>421599</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>347708</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>459577</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>511141</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>469545</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>428656</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>846314</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>905355</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>891144</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>776364</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>360191; 412225</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>368126; 424735</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>395286; 450899</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>153188; 481867</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>430139; 487109</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>480493; 538355</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>438268; 497576</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>404927; 452266</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>805900; 886728</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>864740; 946381</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>846023; 927260</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>480241; 925618</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1569</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1562</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1520</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1782</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1829</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2833</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>3164</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>3391</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1416113</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1679193</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1634431</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1330544</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1830898</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>2201324</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1943857</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1960429</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>3247011</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>3880516</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>3578287</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>3290973</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1356877; 1473889</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1620190; 1738378</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1575082; 1691855</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>976902; 1447636</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1773088; 1890301</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2141823; 2259257</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1882208; 2005086</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1823309; 2243155</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>3167492; 3328852</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>3790831; 3959656</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>3498469; 3664912</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>2972898; 3602461</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>